--- a/public/xlsx/DataTemplate.xlsx
+++ b/public/xlsx/DataTemplate.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -73,8 +73,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -379,15 +379,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -399,59 +470,12 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
